--- a/Importante.xlsx
+++ b/Importante.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="203">
   <si>
     <t>PPMC</t>
   </si>
@@ -637,6 +637,15 @@
       </rPr>
       <t>Acta de Aceptación de Entregables</t>
     </r>
+  </si>
+  <si>
+    <t>Indice Items de Configuracion</t>
+  </si>
+  <si>
+    <t>IICON</t>
+  </si>
+  <si>
+    <t>IICOM_V#.#_2015</t>
   </si>
 </sst>
 </file>
@@ -1328,6 +1337,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1378,45 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,10 +1979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1990,79 +1999,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="K1" s="45" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="K1" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="K3" s="46" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="K3" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="K4" s="46" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="K4" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="K5" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="K5" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1">
       <c r="A6" s="29" t="s">
@@ -2094,12 +2103,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="2">
@@ -2451,12 +2460,12 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="2">
@@ -2667,11 +2676,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="2">
@@ -2879,12 +2888,12 @@
     <row r="38" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="39" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="A41" s="2">
@@ -3063,12 +3072,12 @@
     <row r="47" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1">
       <c r="A51" s="2">
@@ -3191,13 +3200,13 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>143</v>
@@ -3216,89 +3225,89 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A57" s="42" t="s">
+      <c r="A56" s="2">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C57" s="39"/>
+    </row>
+    <row r="58" spans="1:9" ht="29.25" thickBot="1">
+      <c r="A58" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2">
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2">
         <v>1</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="61" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A61" s="42" t="s">
+      <c r="I59" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A62" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A62" s="2">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="57"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1">
       <c r="A63" s="2">
-        <v>2</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>143</v>
@@ -3318,16 +3327,16 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1">
       <c r="A64" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>143</v>
@@ -3347,16 +3356,16 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="2">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>143</v>
@@ -3371,6 +3380,35 @@
         <v>142</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3378,8 +3416,8 @@
   <mergeCells count="12">
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
@@ -3410,7 +3448,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:I30 H22:I28 E38:I40 H31:I37 E47:I50 H41:I46 E56:I57 H51:I55 E59:I61 H58:I58 E66:I106 H62:I65">
+  <conditionalFormatting sqref="E29:I30 H22:I28 E38:I40 H31:I37 E47:I50 H41:I46 E57:I58 H51:I56 E60:I62 H59:I59 E67:I107 H63:I66">
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3454,7 +3492,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:G55">
+  <conditionalFormatting sqref="E51:G56">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3465,7 +3503,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:G58">
+  <conditionalFormatting sqref="E59:G59">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3473,10 +3511,10 @@
       <formula>"NO"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SI",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:G65">
+  <conditionalFormatting sqref="E63:G66">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3484,7 +3522,7 @@
       <formula>"NO"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SI",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I19">
@@ -3522,12 +3560,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5" ht="29.25" thickBot="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
@@ -3801,27 +3839,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="45" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3829,10 +3867,10 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3840,10 +3878,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3851,10 +3889,10 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="43" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3862,10 +3900,10 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3873,10 +3911,10 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="43" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3884,21 +3922,21 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3906,10 +3944,10 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3917,10 +3955,10 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3928,10 +3966,10 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3939,10 +3977,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3950,10 +3988,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="43" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3961,10 +3999,10 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3972,10 +4010,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3983,10 +4021,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3994,10 +4032,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4005,10 +4043,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="43" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4016,10 +4054,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="43" t="s">
         <v>161</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4027,10 +4065,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="43" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4038,10 +4076,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="43" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4049,10 +4087,10 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="43" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -4060,10 +4098,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="43" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -4071,10 +4109,10 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="43" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4082,10 +4120,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="43" t="s">
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -4093,10 +4131,10 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="43" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -4104,10 +4142,10 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -4115,10 +4153,10 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="43" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -4126,10 +4164,10 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="43" t="s">
         <v>171</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -4137,17 +4175,17 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -4155,10 +4193,10 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="43" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -4166,10 +4204,10 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="43" t="s">
         <v>175</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -4177,10 +4215,10 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="43" t="s">
         <v>178</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -4188,10 +4226,10 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="43" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -4199,10 +4237,10 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -4210,10 +4248,10 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="43" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -4221,10 +4259,10 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="43" t="s">
         <v>186</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -4232,10 +4270,10 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="43" t="s">
         <v>115</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -4243,10 +4281,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="43" t="s">
         <v>190</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -4254,10 +4292,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="43" t="s">
         <v>192</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -4265,10 +4303,10 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="43" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -4276,10 +4314,10 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="43" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -4287,10 +4325,10 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="43" t="s">
         <v>197</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -4298,10 +4336,10 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="43" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -4309,10 +4347,10 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="43" t="s">
         <v>122</v>
       </c>
       <c r="D48" s="6" t="s">

--- a/Importante.xlsx
+++ b/Importante.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP\Downloads\LO QUE ESTOY AVANZANDO PDS1 15-10-2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -639,20 +639,20 @@
     </r>
   </si>
   <si>
-    <t>Indice Items de Configuracion</t>
-  </si>
-  <si>
     <t>IICON</t>
   </si>
   <si>
     <t>IICOM_V#.#_2015</t>
+  </si>
+  <si>
+    <t>Indice Cambios Items de Configuracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,8 +813,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +846,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,22 +1258,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,39 +1283,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,15 +1310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,9 +1320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,6 +1362,60 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,6 +1466,88 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1981,15 +2103,14 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
@@ -1999,91 +2120,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="K1" s="58" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="K1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="K3" s="59" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="K4" s="59" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="K5" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="K5" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2095,7 +2216,7 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2103,596 +2224,596 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="2">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="E8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="2">
+      <c r="I8" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="2">
+      <c r="I9" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="85" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="E10" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="2">
+      <c r="I10" s="84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="E11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="2">
+      <c r="I11" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="37">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="2">
+      <c r="I12" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="37">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="2">
+      <c r="I13" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="37">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="E14" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="2">
+      <c r="I14" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="80">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="E15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="2">
+      <c r="I15" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="37">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="E16" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="2">
+      <c r="I16" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="80">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="E17" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="2">
+      <c r="I17" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="80">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="E18" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="2">
+      <c r="I18" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="80">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="E19" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="80" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="2">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="E22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="2">
+      <c r="I22" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="37">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="E23" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="2">
+      <c r="I23" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="37">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="E24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="2">
+      <c r="I24" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="52">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="E25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="2">
+      <c r="I25" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="52">
         <v>5</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="E26" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="2">
+      <c r="I26" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="37">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="E27" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="2">
+      <c r="I27" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="80">
         <v>7</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="E28" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="80" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B29" s="8"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="2">
+      <c r="A31" s="74">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2712,16 +2833,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="2">
+      <c r="A32" s="74">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="79" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2741,16 +2862,16 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="2">
+      <c r="A33" s="74">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="79" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2770,16 +2891,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="2">
+      <c r="A34" s="74">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="79" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2799,16 +2920,16 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="2">
+      <c r="A35" s="74">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="79" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2828,16 +2949,16 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="2">
+      <c r="A36" s="74">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="79" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2857,16 +2978,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="2">
+      <c r="A37" s="74">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="79" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2888,325 +3009,325 @@
     <row r="38" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="39" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="2">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+    </row>
+    <row r="41" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A41" s="37">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="E41" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="2">
+      <c r="I41" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A42" s="37">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="E42" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A43" s="2">
+      <c r="I42" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="37">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="E43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="2">
+      <c r="I43" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="80">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="E44" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="2">
+      <c r="I44" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="37">
         <v>5</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="E45" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="2">
+      <c r="I45" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="80">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="E46" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="80" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A51" s="2">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+    </row>
+    <row r="51" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="37">
         <v>1</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="E51" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="2">
+      <c r="I51" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="74">
         <v>2</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="E52" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="2">
+      <c r="I52" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="37">
         <v>3</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="E53" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="2">
+      <c r="I53" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="37">
         <v>4</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="E54" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="2">
+      <c r="A55" s="49">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="D55" s="51" t="s">
         <v>201</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>143</v>
@@ -3224,45 +3345,45 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="2">
+    <row r="56" spans="1:9" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="74">
         <v>6</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="E56" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="74" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C57" s="39"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="57"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
@@ -3289,126 +3410,126 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="62" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="57"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A63" s="2">
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
+    </row>
+    <row r="63" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A63" s="74">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="E63" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A64" s="2">
+      <c r="I63" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A64" s="74">
         <v>2</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="E64" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A65" s="2">
+      <c r="I64" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A65" s="74">
         <v>3</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="2" t="s">
+      <c r="E65" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A66" s="2">
+      <c r="I65" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A66" s="37">
         <v>4</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="E66" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="37" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3560,12 +3681,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5" ht="29.25" thickBot="1">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
@@ -3575,10 +3696,10 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="2">
@@ -3587,10 +3708,10 @@
       <c r="I20" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3601,10 +3722,10 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="2">
@@ -3613,10 +3734,10 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3627,10 +3748,10 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="2">
@@ -3639,10 +3760,10 @@
       <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3653,10 +3774,10 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="2">
@@ -3665,10 +3786,10 @@
       <c r="I23" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3679,22 +3800,22 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3705,10 +3826,10 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="2">
@@ -3717,10 +3838,10 @@
       <c r="I25" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3731,22 +3852,22 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="2">
         <v>7</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3757,10 +3878,10 @@
       <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3771,10 +3892,10 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3785,10 +3906,10 @@
       <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3799,10 +3920,10 @@
       <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3813,10 +3934,10 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3839,521 +3960,521 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="27" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="3" t="s">
         <v>123</v>
       </c>
     </row>

--- a/Importante.xlsx
+++ b/Importante.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP\Downloads\LO QUE ESTOY AVANZANDO PDS1 15-10-2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
   <si>
     <t>PPMC</t>
   </si>
@@ -646,6 +646,48 @@
   </si>
   <si>
     <t>Indice Cambios Items de Configuracion</t>
+  </si>
+  <si>
+    <t>Tablero de Metricas</t>
+  </si>
+  <si>
+    <t>TABME</t>
+  </si>
+  <si>
+    <t>PROMEME</t>
+  </si>
+  <si>
+    <t>PROMEME_V#.#_2015</t>
+  </si>
+  <si>
+    <t>TABME_V#.#_2015</t>
+  </si>
+  <si>
+    <t>Ficha de Metricas de N Conformidades QA de Producto</t>
+  </si>
+  <si>
+    <t>FMNCONPRO</t>
+  </si>
+  <si>
+    <t>FMNCONPRO_V#.#_2015</t>
+  </si>
+  <si>
+    <t>Ficha de Metricas de Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>FMVREQM</t>
+  </si>
+  <si>
+    <t>FMVREQM_V#.#_2015</t>
+  </si>
+  <si>
+    <t>Ficha de Metrica de Indice de Cambios en Items de Configuracion</t>
+  </si>
+  <si>
+    <t>FMICIC</t>
+  </si>
+  <si>
+    <t>FMICIC_V#.#_2015</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1416,57 +1458,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,13 +1539,67 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1748,6 +1793,69 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2101,10 +2209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2120,79 +2228,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="K1" s="60" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="K1" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="61" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="K3" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="K4" s="61" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="K4" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="K5" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="K5" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1">
       <c r="A6" s="15" t="s">
@@ -2224,12 +2332,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="37">
@@ -2289,32 +2397,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="85" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="80">
+    <row r="10" spans="1:13" s="68" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="63">
         <v>3</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="84" t="s">
+      <c r="E10" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="67" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2434,32 +2542,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="80">
+    <row r="15" spans="1:13" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="63">
         <v>8</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="80" t="s">
+      <c r="E15" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="63" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2492,101 +2600,101 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="80">
+    <row r="17" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="63">
         <v>10</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="80" t="s">
+      <c r="E17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="80" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="80">
+      <c r="I17" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="63">
         <v>11</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="80" t="s">
+      <c r="E18" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="80" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="80">
+      <c r="I18" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="63">
         <v>12</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="80" t="s">
+      <c r="E19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="37">
@@ -2762,32 +2870,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="80">
+    <row r="28" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="63">
         <v>7</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="80" t="s">
+      <c r="E28" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="63" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2797,23 +2905,23 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="74">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="60" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2833,16 +2941,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="74">
+      <c r="A32" s="57">
         <v>2</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="62" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2862,16 +2970,16 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="74">
+      <c r="A33" s="57">
         <v>3</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="62" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2891,16 +2999,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="74">
+      <c r="A34" s="57">
         <v>4</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="62" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2920,16 +3028,16 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="74">
+      <c r="A35" s="57">
         <v>5</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="62" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2949,16 +3057,16 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="74">
+      <c r="A36" s="57">
         <v>6</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="62" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2978,16 +3086,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="74">
+      <c r="A37" s="57">
         <v>7</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="62" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3009,12 +3117,12 @@
     <row r="38" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="39" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
     </row>
     <row r="41" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="37">
@@ -3023,10 +3131,10 @@
       <c r="B41" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="81" t="s">
         <v>111</v>
       </c>
       <c r="E41" s="37" t="s">
@@ -3081,10 +3189,10 @@
       <c r="B43" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="83" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="37" t="s">
@@ -3103,32 +3211,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="80">
+    <row r="44" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="63">
         <v>4</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="80" t="s">
+      <c r="E44" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="80" t="s">
+      <c r="I44" s="63" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3136,13 +3244,13 @@
       <c r="A45" s="37">
         <v>5</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D45" s="86" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="37" t="s">
@@ -3161,44 +3269,44 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="80">
+    <row r="46" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="63">
         <v>6</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="87" t="s">
+      <c r="D46" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="80" t="s">
+      <c r="E46" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="I46" s="80" t="s">
+      <c r="I46" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
     </row>
     <row r="51" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="37">
@@ -3229,32 +3337,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="74">
+    <row r="52" spans="1:9" s="58" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="57">
         <v>2</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="74" t="s">
+      <c r="E52" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="74" t="s">
+      <c r="I52" s="57" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3345,32 +3453,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="74">
+    <row r="56" spans="1:9" s="58" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="57">
         <v>6</v>
       </c>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="74" t="s">
+      <c r="E56" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="74" t="s">
+      <c r="I56" s="57" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3378,12 +3486,12 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
@@ -3392,6 +3500,12 @@
       <c r="B59" t="s">
         <v>31</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>143</v>
       </c>
@@ -3408,128 +3522,237 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A62" s="57" t="s">
+    <row r="60" spans="1:9">
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="29.25" customHeight="1">
+      <c r="B61" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="27" customHeight="1">
+      <c r="B62" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="27.75" customHeight="1">
+      <c r="B63" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="27.75" customHeight="1">
+      <c r="B64" s="104"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="66" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A66" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-    </row>
-    <row r="63" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A63" s="74">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+    </row>
+    <row r="67" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A67" s="57">
         <v>1</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B67" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C67" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="91" t="s">
+      <c r="D67" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="74" t="s">
+      <c r="E67" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="I63" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A64" s="74">
+      <c r="I67" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A68" s="57">
         <v>2</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B68" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="93" t="s">
+      <c r="C68" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D68" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G64" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="74" t="s">
+      <c r="E68" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="75" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A65" s="74">
+      <c r="I68" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A69" s="57">
         <v>3</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B69" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="95" t="s">
+      <c r="C69" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D69" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="74" t="s">
+      <c r="E69" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="I65" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A66" s="37">
+      <c r="I69" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A70" s="37">
         <v>4</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B70" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C70" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D70" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="37" t="s">
+      <c r="E70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I70" s="37" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3538,7 +3761,7 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
@@ -3569,7 +3792,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:I30 H22:I28 E38:I40 H31:I37 E47:I50 H41:I46 E57:I58 H51:I56 E60:I62 H59:I59 E67:I107 H63:I66">
+  <conditionalFormatting sqref="E29:I30 H22:I28 E38:I40 H31:I37 E47:I50 H41:I46 E57:I58 H51:I56 E65:I66 E71:I111 H67:I70 H59:I64">
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3624,7 +3847,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:G59">
+  <conditionalFormatting sqref="E59:G64">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3635,7 +3858,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:G66">
+  <conditionalFormatting sqref="E67:G70">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -3643,7 +3866,7 @@
       <formula>"NO"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SI",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I19">
@@ -3681,12 +3904,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5" ht="29.25" thickBot="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
@@ -3952,6 +4175,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="B1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Importante.xlsx
+++ b/Importante.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\UTP-GPS-ALARM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="antigua nomenclatura" sheetId="3" r:id="rId3"/>
+    <sheet name="DOCS BORRADOS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="218">
   <si>
     <t>PPMC</t>
   </si>
@@ -424,18 +425,9 @@
     <t>IRQAREQM_V#.#_DD_MM_2015</t>
   </si>
   <si>
-    <t>IRQASOFT</t>
-  </si>
-  <si>
-    <t>IRQASOFT_V#.#_DD_MM_2015</t>
-  </si>
-  <si>
     <t>Informe de Revision de QA REQM</t>
   </si>
   <si>
-    <t>Informe de revision de QA SOFTWARE</t>
-  </si>
-  <si>
     <t>Informe de Auditoria de CM</t>
   </si>
   <si>
@@ -449,9 +441,6 @@
   </si>
   <si>
     <t>METRIQA_V#.#_2015</t>
-  </si>
-  <si>
-    <t>OTROS PERO FIGURAN EN PPMC</t>
   </si>
   <si>
     <t>SI</t>
@@ -689,12 +678,27 @@
   <si>
     <t>FMICIC_V#.#_2015</t>
   </si>
+  <si>
+    <t>APAESTEGUI LO HARA PORQUE AL OCIOSO DE MIERDA DE GASPAR LE DA PEREZITA</t>
+  </si>
+  <si>
+    <t>Ficha de Metrica de Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>FMEXRI</t>
+  </si>
+  <si>
+    <t>FMEXRI_V#.#_2015</t>
+  </si>
+  <si>
+    <t>ACTAS E INFORMES DEL PROYECTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,8 +875,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,8 +927,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1295,12 +1313,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1462,18 +1489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,17 +1499,10 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,7 +1599,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1656,7 @@
     <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -1610,6 +1667,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1645,6 +1786,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1666,6 +1835,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1792,6 +1975,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1814,6 +2060,230 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2209,10 +2679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2228,79 +2698,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
-      <c r="K1" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="K1" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
-      <c r="K3" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="K3" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="K4" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="K4" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+      <c r="K5" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1">
       <c r="A6" s="15" t="s">
@@ -2332,12 +2802,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="37">
@@ -2353,19 +2823,19 @@
         <v>51</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
@@ -2382,48 +2852,48 @@
         <v>49</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="63">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>143</v>
+      <c r="E10" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
@@ -2440,19 +2910,19 @@
         <v>50</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
@@ -2469,1418 +2939,1158 @@
         <v>52</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="37">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="102" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="109">
         <v>6</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B13" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="37">
         <v>7</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="63">
-        <v>8</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="37">
-        <v>9</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="63">
-        <v>10</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="63">
-        <v>11</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="63">
-        <v>12</v>
-      </c>
-      <c r="B19" s="64" t="s">
+      <c r="B14" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="66" t="s">
+      <c r="C14" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A21" s="87" t="s">
+      <c r="E14" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="16" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+    </row>
+    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="37">
+        <v>1</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="37">
+        <v>2</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="37">
+        <v>3</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="52">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="52">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="37">
+        <v>6</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="19.5" thickBot="1">
+      <c r="B24" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+    </row>
+    <row r="25" spans="1:16" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="37">
+      <c r="B25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="37">
         <v>2</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="37">
+      <c r="B26" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="109">
         <v>3</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="52">
+      <c r="B27" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="109">
         <v>4</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="53" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="52">
+      <c r="B28" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="109">
         <v>5</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="37">
+      <c r="B29" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="109">
         <v>6</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="63">
-        <v>7</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B30" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="57">
+      <c r="B30" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1"/>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="33" spans="1:9" ht="29.25" thickBot="1">
+      <c r="A33" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+    </row>
+    <row r="34" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="37">
         <v>1</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="57">
+      <c r="B34" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A35" s="37">
         <v>2</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="57">
+      <c r="B35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A36" s="37">
         <v>3</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="57">
-        <v>4</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="57">
-        <v>5</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="57">
+      <c r="B36" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="98">
         <v>6</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="57">
-        <v>7</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>143</v>
+      <c r="B37" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="98" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1"/>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A40" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89"/>
-    </row>
-    <row r="41" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A41" s="37">
-        <v>1</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>143</v>
-      </c>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="41" spans="1:9" ht="29.25" thickBot="1">
+      <c r="A41" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
     </row>
     <row r="42" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="37">
         <v>3</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="83" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="63">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="37">
         <v>4</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="37">
+      <c r="B44" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="49">
         <v>5</v>
       </c>
-      <c r="B45" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="64" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="63">
+      <c r="B45" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="114">
         <v>6</v>
       </c>
-      <c r="B46" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickTop="1"/>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A50" s="87" t="s">
+      <c r="B46" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="29.25" thickBot="1">
+      <c r="A48" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="82"/>
+    </row>
+    <row r="49" spans="1:9" s="38" customFormat="1">
+      <c r="A49" s="37">
+        <v>1</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="38" customFormat="1">
+      <c r="A50" s="37">
+        <v>2</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="38" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A51" s="37">
         <v>3</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-    </row>
-    <row r="51" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="37">
-        <v>1</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>104</v>
+      <c r="B51" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="58" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="57">
-        <v>2</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="38" customFormat="1" ht="27" customHeight="1">
+      <c r="A52" s="37">
+        <v>4</v>
+      </c>
+      <c r="B52" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="38" customFormat="1" ht="27.75" customHeight="1">
       <c r="A53" s="37">
-        <v>3</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>109</v>
+        <v>5</v>
+      </c>
+      <c r="B53" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.75" customHeight="1">
       <c r="A54" s="37">
+        <v>6</v>
+      </c>
+      <c r="B54" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A56" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="82"/>
+    </row>
+    <row r="57" spans="1:9" s="58" customFormat="1"/>
+    <row r="58" spans="1:9" s="58" customFormat="1"/>
+    <row r="59" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="60" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A60" s="37">
         <v>4</v>
       </c>
-      <c r="B54" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="49">
-        <v>5</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="58" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="57">
+      <c r="B60" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="37">
         <v>6</v>
       </c>
-      <c r="B56" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="62" t="s">
+      <c r="B61" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A58" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="89"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="29.25" customHeight="1">
-      <c r="B61" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1">
-      <c r="B62" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="27.75" customHeight="1">
-      <c r="B63" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="27.75" customHeight="1">
-      <c r="B64" s="104"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="66" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A66" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89"/>
-    </row>
-    <row r="67" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A67" s="57">
-        <v>1</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G67" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A68" s="57">
-        <v>2</v>
-      </c>
-      <c r="B68" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I68" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A69" s="57">
-        <v>3</v>
-      </c>
-      <c r="B69" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="37">
-        <v>4</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
+      <c r="I61" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="37">
+        <v>7</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A63" s="37">
+        <v>9</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A66:D66"/>
+  <mergeCells count="13">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B1:I5"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J30:P30"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G19">
-    <cfRule type="expression" dxfId="27" priority="28">
+  <conditionalFormatting sqref="G8:G14 G61:G63 I8:I14 I61:I63">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G19">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="G8:G14 G61:G63 I8:I14 I61:I63">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:I19">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+  <conditionalFormatting sqref="E34:G37 E8:I14 E61:I63">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:I30 H22:I28 E38:I40 H31:I37 E47:I50 H41:I46 E57:I58 H51:I56 E65:I66 E71:I111 H67:I70 H59:I64">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+  <conditionalFormatting sqref="E23:I24 H17:I22 E31:I33 H25:I30 E38:I41 E47:I48 E55:I56 E64:I101 H60:I60 H34:I37 H42:I46 H49:I54">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:G28">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+  <conditionalFormatting sqref="E17:G22">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E22)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:G37">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+  <conditionalFormatting sqref="E25:G30 J30">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E31)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:G46">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+  <conditionalFormatting sqref="E42:G46">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E41)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:G56">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="E49:G54">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E51)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:G64">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+  <conditionalFormatting sqref="E60:G60">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:G70">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"REVISAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>"SI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"SI"</formula>
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",E60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3904,12 +4114,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5" ht="29.25" thickBot="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
@@ -4191,7 +4401,7 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>8</v>
@@ -4224,7 +4434,7 @@
     </row>
     <row r="5" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B5" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>44</v>
@@ -4235,7 +4445,7 @@
     </row>
     <row r="6" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B6" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>64</v>
@@ -4246,7 +4456,7 @@
     </row>
     <row r="7" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B7" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>125</v>
@@ -4257,7 +4467,7 @@
     </row>
     <row r="8" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B8" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>70</v>
@@ -4268,7 +4478,7 @@
     </row>
     <row r="9" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B9" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>72</v>
@@ -4312,7 +4522,7 @@
     </row>
     <row r="13" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B13" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>46</v>
@@ -4337,7 +4547,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -4345,7 +4555,7 @@
     </row>
     <row r="16" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B16" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>63</v>
@@ -4356,7 +4566,7 @@
     </row>
     <row r="17" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B17" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>76</v>
@@ -4367,7 +4577,7 @@
     </row>
     <row r="18" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B18" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>65</v>
@@ -4378,7 +4588,7 @@
     </row>
     <row r="19" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>67</v>
@@ -4389,29 +4599,29 @@
     </row>
     <row r="20" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B20" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B21" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B22" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>94</v>
@@ -4433,7 +4643,7 @@
     </row>
     <row r="24" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B24" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>78</v>
@@ -4444,7 +4654,7 @@
     </row>
     <row r="25" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B25" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>103</v>
@@ -4455,7 +4665,7 @@
     </row>
     <row r="26" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B26" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>84</v>
@@ -4466,7 +4676,7 @@
     </row>
     <row r="27" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B27" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>105</v>
@@ -4477,7 +4687,7 @@
     </row>
     <row r="28" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B28" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>108</v>
@@ -4488,7 +4698,7 @@
     </row>
     <row r="29" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B29" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>97</v>
@@ -4499,7 +4709,7 @@
     </row>
     <row r="30" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B30" s="34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>99</v>
@@ -4513,15 +4723,15 @@
         <v>15</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B32" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="3"/>
@@ -4550,29 +4760,29 @@
     </row>
     <row r="35" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B35" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B36" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B37" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>110</v>
@@ -4583,18 +4793,18 @@
     </row>
     <row r="38" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B38" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B39" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>108</v>
@@ -4605,18 +4815,18 @@
     </row>
     <row r="40" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B40" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B41" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>115</v>
@@ -4627,29 +4837,29 @@
     </row>
     <row r="42" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B42" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B43" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B44" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>86</v>
@@ -4660,7 +4870,7 @@
     </row>
     <row r="45" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B45" s="36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>88</v>
@@ -4671,13 +4881,13 @@
     </row>
     <row r="46" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B46" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -4706,4 +4916,386 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:10" ht="24.75" thickBot="1">
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="39" thickBot="1">
+      <c r="B5" s="57">
+        <v>2</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="39" thickBot="1">
+      <c r="B6" s="57">
+        <v>3</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B9" s="59">
+        <v>8</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B10" s="59">
+        <v>10</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="14" spans="2:10" ht="37.5" thickTop="1" thickBot="1">
+      <c r="B14" s="59">
+        <v>7</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B17" s="59">
+        <v>4</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="20" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B20" s="57">
+        <v>2</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="23" spans="2:10" ht="24">
+      <c r="B23" s="37">
+        <v>5</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I4:J6">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:H6">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:J9">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:J10">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:J20">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:H20">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:H23">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:J23">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"REVISAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Importante.xlsx
+++ b/Importante.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\UTP-GPS-ALARM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1548,57 +1548,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1632,9 +1581,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,13 +1596,67 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -2039,293 +2039,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2679,10 +2392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2698,79 +2411,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="K1" s="83" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
+      <c r="K1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="K3" s="84" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="K3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="K4" s="84" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
+      <c r="K4" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-      <c r="K5" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="K5" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1">
       <c r="A6" s="15" t="s">
@@ -2802,12 +2515,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="37">
@@ -2867,32 +2580,32 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:13" s="80" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="98" t="s">
+      <c r="E10" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="81" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2954,72 +2667,72 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="102" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="109">
+    <row r="13" spans="1:13" s="85" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="92">
         <v>6</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="101" t="s">
+      <c r="E13" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I13" s="84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="80" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="37">
         <v>7</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="98" t="s">
+      <c r="E14" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="16" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
     </row>
     <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="37">
@@ -3201,11 +2914,11 @@
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" thickBot="1">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
     </row>
     <row r="25" spans="1:16" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="37">
@@ -3217,7 +2930,7 @@
       <c r="C25" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="91" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="37" t="s">
@@ -3266,16 +2979,16 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="109">
+      <c r="A27" s="92">
         <v>3</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="90" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3294,75 +3007,75 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="109">
+    <row r="28" spans="1:16" s="88" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="92">
         <v>4</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="109" t="s">
+      <c r="E28" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="109">
+      <c r="I28" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="88" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="92">
         <v>5</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="109" t="s">
+      <c r="E29" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="109" t="s">
+      <c r="I29" s="92" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="109">
+      <c r="A30" s="92">
         <v>6</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="90" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3380,25 +3093,25 @@
       <c r="I30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="110" t="s">
+      <c r="J30" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickTop="1"/>
     <row r="32" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="33" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="37">
@@ -3487,44 +3200,44 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="98">
+    <row r="37" spans="1:9" s="80" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="81">
         <v>6</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="98" t="s">
+      <c r="E37" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="98" t="s">
+      <c r="I37" s="81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="40" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="41" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
     </row>
     <row r="42" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="37">
@@ -3642,32 +3355,32 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="105" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="114">
+    <row r="46" spans="1:9" s="88" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="96">
         <v>6</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="109" t="s">
+      <c r="E46" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="I46" s="109" t="s">
+      <c r="I46" s="92" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3675,12 +3388,12 @@
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="82"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:9" s="38" customFormat="1">
       <c r="A49" s="37">
@@ -3744,7 +3457,7 @@
       <c r="A51" s="37">
         <v>3</v>
       </c>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="98" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="37" t="s">
@@ -3773,7 +3486,7 @@
       <c r="A52" s="37">
         <v>4</v>
       </c>
-      <c r="B52" s="116" t="s">
+      <c r="B52" s="98" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="37" t="s">
@@ -3802,7 +3515,7 @@
       <c r="A53" s="37">
         <v>5</v>
       </c>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="98" t="s">
         <v>210</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -3831,7 +3544,7 @@
       <c r="A54" s="37">
         <v>6</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="98" t="s">
         <v>214</v>
       </c>
       <c r="C54" s="37" t="s">
@@ -3858,28 +3571,112 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-    </row>
-    <row r="57" spans="1:9" s="58" customFormat="1"/>
-    <row r="58" spans="1:9" s="58" customFormat="1"/>
-    <row r="59" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="60" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
+    </row>
+    <row r="57" spans="1:9" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A57" s="37">
+        <v>4</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="37">
+        <v>6</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A59" s="37">
+        <v>7</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>126</v>
+        <v>58</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="E60" s="37" t="s">
         <v>139</v>
@@ -3897,94 +3694,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="37">
-        <v>6</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="37">
-        <v>7</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="37">
-        <v>9</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickTop="1"/>
+    <row r="61" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A33:D33"/>
@@ -4001,17 +3711,17 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="J30:P30"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G14 G61:G63 I8:I14 I61:I63">
+  <conditionalFormatting sqref="G8:G14 G58:G60 I8:I14 I58:I60">
     <cfRule type="expression" dxfId="54" priority="28">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G14 G61:G63 I8:I14 I61:I63">
+  <conditionalFormatting sqref="G8:G14 G58:G60 I8:I14 I58:I60">
     <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:G37 E8:I14 E61:I63">
+  <conditionalFormatting sqref="E34:G37 E8:I14 E58:I60">
     <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -4022,7 +3732,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:I24 H17:I22 E31:I33 H25:I30 E38:I41 E47:I48 E55:I56 E64:I101 H60:I60 H34:I37 H42:I46 H49:I54">
+  <conditionalFormatting sqref="E23:I24 H17:I22 E31:I33 H25:I30 E38:I41 E47:I48 E55:I56 E61:I98 H57:I57 H34:I37 H42:I46 H49:I54">
     <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -4077,7 +3787,7 @@
       <formula>NOT(ISERROR(SEARCH("SI",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:G60">
+  <conditionalFormatting sqref="E57:G57">
     <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"REVISAR"</formula>
     </cfRule>
@@ -4085,7 +3795,7 @@
       <formula>"NO"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="SI">
-      <formula>NOT(ISERROR(SEARCH("SI",E60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SI",E57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4114,12 +3824,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5" ht="29.25" thickBot="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
